--- a/nucleo_h7_boy3/src/ap/TouchGFX/assets/texts/texts.xlsx
+++ b/nucleo_h7_boy3/src/ap/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="61">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1639,23 +1639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-    </row>
+    <row r="4"/>
     <row r="5"/>
     <row r="6"/>
     <row r="7"/>
